--- a/ImOnAVote포트폴리오/03. 설계/03_01. 테이블 정의서.xlsx
+++ b/ImOnAVote포트폴리오/03. 설계/03_01. 테이블 정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\포트폴리오 관련\03. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6410BCD-E1E5-463C-AFDD-0039468221D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0C5A8C-F168-48B4-B8C5-37854E26135A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="6324" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
   <si>
     <t>column_name</t>
   </si>
@@ -89,9 +89,6 @@
     <t>성별</t>
   </si>
   <si>
-    <t xml:space="preserve">  WRITER </t>
-  </si>
-  <si>
     <t>문자수신동의여부</t>
   </si>
   <si>
@@ -147,32 +144,6 @@
   </si>
   <si>
     <t>TIMESTAMP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>IG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>INT</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -472,12 +443,16 @@
     <t>설문내용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">  WRITER </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -532,6 +507,14 @@
       <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -626,39 +609,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -669,10 +628,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1193,6 +1161,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
@@ -1224,8 +1195,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H37" sqref="B6:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1240,48 +1211,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="38.25" customHeight="1">
-      <c r="B2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="2:8" ht="28.5" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>40</v>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="27" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>41</v>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="24.75" customHeight="1">
@@ -1298,843 +1269,843 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7">
+        <v>500</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="7">
+        <v>200</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="6">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="6">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="6">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="8">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="6">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="6">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="7">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="6">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="7">
+        <v>200</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="7">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="7">
+        <v>200</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="6">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="6">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="7">
+        <v>10</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="6">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="7">
+        <v>20</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="6">
+        <v>17</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="7">
+        <v>20</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="6">
+        <v>18</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="7">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="6">
+        <v>19</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="7">
+        <v>20</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="6">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="7">
+        <v>20</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="6">
+        <v>21</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="2">
+      <c r="C27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="6">
+        <v>23</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="6">
+        <v>24</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="6">
+        <v>25</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="6">
+        <v>26</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="7">
+        <v>20</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="6">
+        <v>27</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="G32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="6">
         <v>28</v>
       </c>
-      <c r="F7" s="3">
-        <v>500</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="6">
+        <v>29</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="7">
         <v>200</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="2">
-        <v>6</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="2">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="2">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="2">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="G34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="6">
+        <v>30</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="6">
+        <v>31</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="6">
+        <v>32</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="2">
-        <v>10</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E37" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="2">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="3">
-        <v>20</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="2">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="14">
-        <v>13</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="14">
-        <v>200</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="2">
-        <v>14</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="2">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="3">
-        <v>10</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="2">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="3">
-        <v>20</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="2">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="3">
-        <v>20</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="2">
-        <v>18</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="3">
-        <v>20</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="2">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="3">
-        <v>20</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="2">
-        <v>20</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="3">
-        <v>20</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="2">
-        <v>21</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="G37" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="2">
-        <v>22</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="2">
-        <v>23</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="2">
-        <v>24</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="2">
-        <v>25</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="2">
-        <v>26</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="14">
-        <v>20</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="2">
-        <v>27</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="15" t="s">
+      <c r="H37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="14">
-        <v>1</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="2">
-        <v>28</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="2">
-        <v>29</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" s="14">
-        <v>200</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="2">
-        <v>30</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="2">
-        <v>31</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="14">
-        <v>1</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="2">
-        <v>32</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="14">
-        <v>1</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2190,7 +2161,7 @@
   <sheetData>
     <row r="420753" spans="8515:8515">
       <c r="LOM420753" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
